--- a/CashFlow/PFG_cashflow.xlsx
+++ b/CashFlow/PFG_cashflow.xlsx
@@ -3836,10 +3836,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>-156700000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>-265600000.0</v>
